--- a/data/long_razon/P24_8-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_8-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-39,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-33,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 16,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 61,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 26,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-55,7; -19,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 48,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 40,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,68; -16,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 36,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 25,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-39,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-38,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,35; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 147,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 35,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,89; -12,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 18,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 58,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -15,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 37,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 32,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-47,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-21,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-34,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-91,82; 49,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-61,13; 270,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 149,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-61,17; 62,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 229,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 109,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 17,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 181,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 85,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-35,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,72; -7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 68,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 21,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,29; -23,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 28,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 39,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,93; -23,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 30,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 21,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_8-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_8-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1944691505738441</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1506684722376287</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1440021621981694</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.01781759383423074</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.3657177088460903</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.08875224666114637</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1335426027846181</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.02503007413727936</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3057407807274912</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.11215086714394</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.02505710507512408</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.02221777498900189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.5026056340938638</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2386931683847589</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4253042926340705</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3913481650289591</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5328673032098585</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.19122685703356</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1283201162965442</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.279416513766786</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4590245374009994</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1131242353111612</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1772373216495368</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2498280190048646</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.2127353571268073</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.765511749781977</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2714344419392198</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.5423124091242807</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1585850810507404</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.4902291414626155</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4456653234926027</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.3340693352914265</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.1159190153360109</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4189754212199515</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.2539362011414</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.2717769519476899</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.4235441173572149</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4289252928129702</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.06471477739199882</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.03580728374277668</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3724681679888018</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2156475440303778</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.167451848139019</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.02303364487740472</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3903194895493595</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.01054049103611058</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.05776219896592676</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>9.290794821241611e-05</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6368328026491593</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1418212801222584</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3879163515270508</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3965884680238952</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.5573599723576718</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.480948865473258</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.1581499762024628</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3182005716888893</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5387097210538809</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2807124538571115</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1939866135833832</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2489600559255297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.04921799899953386</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.412758618182782</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4106002869105286</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6853694283940147</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.115087106551111</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1207540364076969</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5983470181051258</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3299282568360965</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.1826733696845141</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.3611945063823075</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.358949244355209</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.349890524253929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.4983083244340419</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3288436881063557</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.03065093847334334</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.315333712949454</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2385202422610877</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.7746687385599231</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.1482972297097573</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.3588343985113157</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.3614486543654639</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.5929664164890339</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1038634612021185</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.1126095136344815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.9368591966741663</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5467511153652868</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5383126977689767</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.453110071765517</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.6008143797077831</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1040146247937692</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3578781731729631</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.6922400594681862</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7029822878946113</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.07037529423683708</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2904986973293353</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.4043420630140283</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.8712156672238227</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.024750828587896</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.380593270005949</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.969698929159675</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.5635384046927164</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.806341474085431</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.038208592898437</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2373667219330858</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1850007815431969</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.943029535890668</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.8332355487636303</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.56900634139531</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.3213996350350004</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.272463439872365</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.09130651092157574</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1265290654836338</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.3570588243012804</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.01172808489035013</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1476853194766542</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.07152423562024318</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.3441089089349974</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1044909066584659</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.04680478395066948</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.003318324200170582</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.5108869503548285</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.0345367154204338</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3023673559387314</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2059954332632527</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4726662801812549</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1847082030891423</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.04841117745855771</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2477929865665816</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.4630911639391356</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.09343365958281384</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.09998999623225895</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1627241670376651</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.07869937521955772</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7444301645279781</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2022572945305286</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6541377440632893</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.2132526259578202</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2961704095466997</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4102779904645644</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1454731071001509</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.2255776248176336</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.3337206504951104</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2168124699060742</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2301094258454644</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
